--- a/2D_orbit_simulation/SagittariusA_data.xlsx
+++ b/2D_orbit_simulation/SagittariusA_data.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/923a4692d59e07b2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Desktop\CMSE202\repositories\cmse202_honors_project\2D_orbit_simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB773FA5-F9C1-4383-8B18-C04A02FCE193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81BA0C-BEBB-45FD-8A2F-AA279DFA366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC431F6B-93BC-47C6-A30F-89C5F1B33D34}"/>
+    <workbookView xWindow="52305" yWindow="2025" windowWidth="15390" windowHeight="9540" xr2:uid="{BC431F6B-93BC-47C6-A30F-89C5F1B33D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -551,12 +552,12 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -686,7 +687,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -751,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -816,7 +817,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -881,7 +882,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -946,7 +947,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
